--- a/eclipse-workspace-1/PageFact_DataDriven_Headless_Angular/Data/data.xlsx
+++ b/eclipse-workspace-1/PageFact_DataDriven_Headless_Angular/Data/data.xlsx
@@ -44,10 +44,10 @@
     <t>No</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
     <t>https://hello-angularjs.appspot.com/sorttablecolumn</t>
+  </si>
+  <si>
+    <t>Chrome-Headless</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -405,10 +405,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
